--- a/biology/Médecine/Antonio_Matani/Antonio_Matani.xlsx
+++ b/biology/Médecine/Antonio_Matani/Antonio_Matani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Matani (1730-1779) est un médecin et mathématicien italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Matani naquit à Pistoie, le 27 juillet 1730. Après avoir fait ses humanités au collège de cette ville, il entra au séminaire épiscopal, où il étudia la philosophie et les mathématiques avec de tels progrès, qu’il fut choisi au bout de trois ans pour y enseigner la géométrie. Cette science ne pouvant encore le fixer, il résolut de s’adonner à la médecine, et se rendit, en 1750 , à Pise, où il suivit avec tant d’ardeur les leçons des plus célèbres professeurs, qu’il reçut le bonnet de docteur le 31 mai 1754. Bientôt il partit pour Florence, où son savoir, sa vie studieuse, et les observations curieuses qu’il publia sur diverses maladies, le firent agréger au collège des médecins de cette ville. L’empereur François lui donna, en 1756, une chaire de philosophie dans l’Université de Pise ; et il y enseigna ensuite la médecine, ainsi que l’anatomie à l’hôpital de Pistoie. Il entreprit, en 1760, un voyage dans les montagnes des environs, et il en rapporta plusieurs observations importantes. Outre les langues grecque, latine et italienne, il savait encore le français et l’anglais. Membre correspondant des sociétés royales de Londres, Göttingen, Montpellier, de celle des Curieux de la nature, de la société économique de Berne, et d’autres ; il contribua par ses travaux au succès des Journaux de médecine et d’histoire naturelle, imprimés à Venise. Il fournit des articles intéressants au Journal de Pise, et à celui de la littérature générale de l’Europe et surtout d’Italie, également imprimé à Venise. Il projetait de donner une histoire littéraire des écrivains de son pays, lorsque la mort l’enleva le 21 juin 1779.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Matani a laissé, en latin et en italien, un grand nombre d’ouvrages sur la philosophie, la médecine et l’histoire naturelle, des préfaces, des traductions, et différents articles insérés dans les journaux d’Italie. Nous indiquerons les suivants :
 De anevrysmaticis præcordiorum morbis, Florence, 1756 ; Livourne, 1761.
